--- a/resources/files/F-43.xlsx
+++ b/resources/files/F-43.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Cta CP (SAP)</t>
   </si>
@@ -54,10 +54,7 @@
     <t>Moneda</t>
   </si>
   <si>
-    <t>37000217</t>
-  </si>
-  <si>
-    <t>CH ROBINSON COMPANY, INC</t>
+    <t>C.H. ROBINSON COMPANY, INC</t>
   </si>
   <si>
     <t>MX20</t>
@@ -75,27 +72,15 @@
     <t>EXT</t>
   </si>
   <si>
-    <t>37000205</t>
-  </si>
-  <si>
-    <t>SOLUTRANS LOGISTICS SA</t>
-  </si>
-  <si>
-    <t>37000212</t>
-  </si>
-  <si>
-    <t>SAMSUNG SDS GLOBAL SCL AMERICA INC</t>
-  </si>
-  <si>
-    <t>35003505</t>
+    <t>SOLUTRANS LOGISTICS S,A</t>
+  </si>
+  <si>
+    <t>SAMSUNG SDS</t>
   </si>
   <si>
     <t>TRANSPLACE MEXICO LLC</t>
   </si>
   <si>
-    <t>35003330</t>
-  </si>
-  <si>
     <t>ESTRATEGIAS SEGURIDAD PRIVADA CAIS</t>
   </si>
   <si>
@@ -108,16 +93,10 @@
     <t>5B55D32D-FD13-446A-BBC1-28CB3FE1F510</t>
   </si>
   <si>
-    <t>37000127</t>
-  </si>
-  <si>
-    <t>SAVINO DEL BENE MEXICO SA DE CV</t>
-  </si>
-  <si>
-    <t>35002591</t>
-  </si>
-  <si>
-    <t>GRUPO MEROMA SC</t>
+    <t>SAVINO DEL BENE MEXICO</t>
+  </si>
+  <si>
+    <t>GRUPO MEROMA</t>
   </si>
   <si>
     <t>HUC TODO EN MERCANCIAS PELIGROSAS</t>
@@ -197,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,12 +187,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -302,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -319,13 +292,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -334,20 +307,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -355,26 +325,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,12 +648,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -710,16 +674,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7"/>
-      <c r="B3" s="18" t="s">
-        <v>44</v>
+      <c r="B3" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -988,11 +952,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="7"/>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>31</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>47</v>
+      <c r="C37" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
@@ -1000,8 +964,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="7"/>
-      <c r="B38" s="20" t="s">
-        <v>48</v>
+      <c r="B38" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1026,8 +990,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.6">
       <c r="A41" s="7"/>
-      <c r="B41" s="18" t="s">
-        <v>49</v>
+      <c r="B41" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1036,8 +1000,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.6">
       <c r="A42" s="7"/>
-      <c r="B42" s="18" t="s">
-        <v>50</v>
+      <c r="B42" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1296,21 +1260,21 @@
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="20" t="s">
-        <v>51</v>
+      <c r="D74" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="7"/>
-      <c r="B75" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="21">
+      <c r="B75" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="20">
         <v>40</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="6">
         <v>40720002</v>
       </c>
       <c r="E75" s="7"/>
@@ -1334,8 +1298,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="7"/>
-      <c r="B78" s="22" t="s">
-        <v>53</v>
+      <c r="B78" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -1560,8 +1524,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="7"/>
-      <c r="B106" s="22" t="s">
-        <v>48</v>
+      <c r="B106" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -1762,8 +1726,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="7"/>
-      <c r="B131" s="20" t="s">
-        <v>54</v>
+      <c r="B131" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -1772,8 +1736,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="7"/>
-      <c r="B132" s="20" t="s">
-        <v>55</v>
+      <c r="B132" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -1998,8 +1962,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="7"/>
-      <c r="B160" s="22" t="s">
-        <v>56</v>
+      <c r="B160" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -2023,9 +1987,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="38.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="38.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2036,65 +2000,65 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>37000205</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="17">
+        <v>30</v>
+      </c>
+      <c r="D3" s="16">
         <f>VLOOKUP(A3,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>37000217</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="17">
+        <v>30</v>
+      </c>
+      <c r="D4" s="16">
         <f>VLOOKUP(A4,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11">
+      <c r="A5" s="6">
         <v>35003505</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="17">
+        <v>30</v>
+      </c>
+      <c r="D5" s="16">
         <f>VLOOKUP(A5,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11">
+      <c r="A6" s="6">
         <v>37000212</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="17">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16">
         <f>VLOOKUP(A6,F:F,1,0)</f>
       </c>
     </row>
@@ -2105,86 +2069,86 @@
       <c r="D7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11">
+      <c r="A8" s="6">
         <v>37000127</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="17">
+        <v>34</v>
+      </c>
+      <c r="D8" s="16">
         <f>VLOOKUP(A8,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11">
+      <c r="A9" s="6">
         <v>35003162</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="17">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16">
         <f>VLOOKUP(A9,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>37000203</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f>VLOOKUP(A10,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="11">
+      <c r="A11" s="6">
         <v>35002437</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="17">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16">
         <f>VLOOKUP(A11,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <v>31000053</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="17">
+        <v>34</v>
+      </c>
+      <c r="D12" s="16">
         <f>VLOOKUP(A12,F:F,1,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11">
+      <c r="A13" s="6">
         <v>35003330</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="17">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16">
         <f>VLOOKUP(A13,F:F,1,0)</f>
       </c>
     </row>
@@ -2204,17 +2168,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="4.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="5.719285714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2253,277 +2217,277 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="8">
+        <v>37000217</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="10">
         <v>40720002</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="I2" s="6">
         <v>13250055</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
+      <c r="A3" s="8">
+        <v>37000205</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="10">
         <v>40720002</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="I3" s="6">
         <v>13250055</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
+      <c r="A4" s="8">
+        <v>37000212</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="10">
         <v>40720002</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
+      <c r="A5" s="8">
+        <v>35003505</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="10">
         <v>40720002</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
+      <c r="A6" s="11">
+        <v>35003330</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10">
         <v>40720002</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6">
         <v>13250090</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12" t="s">
-        <v>29</v>
+      <c r="A7" s="11">
+        <v>37000127</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10">
         <v>40720002</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="11">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6">
         <v>13250090</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12" t="s">
-        <v>31</v>
+      <c r="A8" s="11">
+        <v>35002591</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="10">
         <v>40720002</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="11">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6">
         <v>13250090</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>35003162</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="10">
         <v>40720002</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="11">
+        <v>22</v>
+      </c>
+      <c r="I9" s="6">
         <v>13250090</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>37000203</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" s="10">
         <v>40720002</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="11">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6">
         <v>13250090</v>
       </c>
       <c r="J10" s="7"/>

--- a/resources/files/F-43.xlsx
+++ b/resources/files/F-43.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jparedes_consultant\Documents\Alfaparf PYTHON\Lector_Facturas-main\resources\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="SAP"/>
-    <sheet r:id="rId2" sheetId="2" name="Fac"/>
-    <sheet r:id="rId3" sheetId="3" name="Acreedores SAP"/>
+    <sheet name="SAP" sheetId="1" r:id="rId1"/>
+    <sheet name="Fac" sheetId="2" r:id="rId2"/>
+    <sheet name="Acreedores SAP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'Acreedores SAP'!$A$1:$H$8</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Cta CP (SAP)</t>
   </si>
@@ -45,15 +50,6 @@
     <t>F7 Clave ref. 3</t>
   </si>
   <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>Fol  fiscal, Sólo en FF</t>
-  </si>
-  <si>
-    <t>Moneda</t>
-  </si>
-  <si>
     <t>C.H. ROBINSON COMPANY, INC</t>
   </si>
   <si>
@@ -88,9 +84,6 @@
   </si>
   <si>
     <t>PPD</t>
-  </si>
-  <si>
-    <t>5B55D32D-FD13-446A-BBC1-28CB3FE1F510</t>
   </si>
   <si>
     <t>SAVINO DEL BENE MEXICO</t>
@@ -174,9 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -217,27 +209,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFb4e5a2"/>
+        <fgColor rgb="FFB4E5A2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf6c6ad"/>
+        <fgColor rgb="FFF6C6AD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff99"/>
+        <fgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF47d45a"/>
+        <fgColor rgb="FF47D45A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf2cfee"/>
+        <fgColor rgb="FFF2CFEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,16 +243,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -276,79 +268,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -359,10 +348,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -400,71 +389,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,7 +481,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -515,11 +504,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -528,13 +517,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -544,7 +533,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -553,7 +542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -570,10 +559,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -646,17 +635,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -664,7 +651,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -672,21 +659,21 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -694,7 +681,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -702,7 +689,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -710,7 +697,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -718,7 +705,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -726,7 +713,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -734,7 +721,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -742,7 +729,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -750,7 +737,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -758,7 +745,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -766,7 +753,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -774,7 +761,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -782,7 +769,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -790,7 +777,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -798,7 +785,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -806,7 +793,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -814,7 +801,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -822,7 +809,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -830,7 +817,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -838,7 +825,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -846,7 +833,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -854,7 +841,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -862,7 +849,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -870,7 +857,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -878,7 +865,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -886,7 +873,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -894,7 +881,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -902,7 +889,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -910,7 +897,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -918,7 +905,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -926,7 +913,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -934,7 +921,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -942,7 +929,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -950,29 +937,29 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="18">
         <v>31</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="6">
+    <row r="39" spans="1:6" ht="6" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -980,7 +967,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.6">
+    <row r="40" spans="1:6" ht="15.6" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -988,27 +975,27 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.6">
+    <row r="41" spans="1:6" ht="15.6" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.6">
+    <row r="42" spans="1:6" ht="15.6" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1016,7 +1003,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1024,7 +1011,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1032,7 +1019,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1040,7 +1027,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1048,7 +1035,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1056,7 +1043,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:6" ht="18.75" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1064,7 +1051,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:6" ht="18.75" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1072,7 +1059,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:6" ht="18.75" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1080,7 +1067,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:6" ht="18.75" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1088,7 +1075,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:6" ht="18.75" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1096,7 +1083,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:6" ht="18.75" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1104,7 +1091,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:6" ht="18.75" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1112,7 +1099,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:6" ht="18.75" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1120,7 +1107,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:6" ht="18.75" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1128,7 +1115,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:6" ht="18.75" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1136,7 +1123,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:6" ht="18.75" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1144,7 +1131,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:6" ht="18.75" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1152,7 +1139,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:6" ht="18.75" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1160,7 +1147,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:6" ht="18.75" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1168,7 +1155,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:6" ht="18.75" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1176,7 +1163,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:6" ht="18.75" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1184,7 +1171,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:6" ht="18.75" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1192,7 +1179,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:6" ht="18.75" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1200,7 +1187,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:6" ht="18.75" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1208,7 +1195,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:6" ht="18.75" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1216,7 +1203,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:6" ht="18.75" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1224,7 +1211,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:6" ht="18.75" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1232,7 +1219,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:6" ht="18.75" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1240,7 +1227,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:6" ht="18.75" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1248,7 +1235,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:6" ht="18.75" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1256,20 +1243,20 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:6" ht="18.75" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:6" ht="18.75" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C75" s="20">
         <v>40</v>
@@ -1280,7 +1267,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:6" ht="18.75" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1288,7 +1275,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:6" ht="18.75" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1296,17 +1283,17 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:6" ht="18.75" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:6" ht="18.75" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -1314,7 +1301,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:6" ht="18.75" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1322,7 +1309,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:6" ht="18.75" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1330,7 +1317,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:6" ht="18.75" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1338,7 +1325,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:6" ht="18.75" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1346,7 +1333,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:6" ht="18.75" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1354,7 +1341,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:6" ht="18.75" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1362,7 +1349,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:6" ht="18.75" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1370,7 +1357,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:6" ht="18.75" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -1378,7 +1365,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:6" ht="18.75" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -1386,7 +1373,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:6" ht="18.75" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -1394,7 +1381,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:6" ht="18.75" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -1402,7 +1389,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:6" ht="18.75" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -1410,7 +1397,7 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -1418,7 +1405,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:6" ht="18.75" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -1426,7 +1413,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:6" ht="18.75" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1434,7 +1421,7 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:6" ht="18.75" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -1442,7 +1429,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:6" ht="18.75" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -1450,7 +1437,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:6" ht="18.75" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -1458,7 +1445,7 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:6" ht="18.75" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -1466,7 +1453,7 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:6" ht="18.75" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -1474,7 +1461,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:6" ht="18.75" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -1482,7 +1469,7 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:6" ht="18.75" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -1490,7 +1477,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:6" ht="18.75" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -1498,7 +1485,7 @@
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:6" ht="18.75" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -1506,7 +1493,7 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:6" ht="18.75" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -1514,7 +1501,7 @@
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:6" ht="18.75" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -1522,17 +1509,17 @@
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:6" ht="18.75" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:6" ht="18.75" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -1540,7 +1527,7 @@
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:6" ht="18.75" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -1548,7 +1535,7 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:6" ht="18.75" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -1556,7 +1543,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:6" ht="18.75" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -1564,7 +1551,7 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:6" ht="18.75" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -1572,7 +1559,7 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:6" ht="18.75" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -1580,7 +1567,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:6" ht="18.75" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -1588,7 +1575,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:6" ht="18.75" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -1596,7 +1583,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:6" ht="18.75" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -1604,7 +1591,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:6" ht="18.75" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -1612,7 +1599,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:6" ht="18.75" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -1620,7 +1607,7 @@
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:6" ht="18.75" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -1628,7 +1615,7 @@
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:6" ht="18.75" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -1636,7 +1623,7 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:6" ht="18.75" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -1644,7 +1631,7 @@
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:6" ht="18.75" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -1652,7 +1639,7 @@
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:6" ht="18.75" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -1660,7 +1647,7 @@
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:6" ht="18.75" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -1668,7 +1655,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:6" ht="18.75" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -1676,7 +1663,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:6" ht="18.75" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -1684,7 +1671,7 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:6" ht="18.75" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -1692,7 +1679,7 @@
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:6" ht="18.75" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -1700,7 +1687,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:6" ht="18.75" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -1708,7 +1695,7 @@
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:6" ht="18.75" customHeight="1">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -1716,7 +1703,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:6" ht="18.75" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -1724,27 +1711,27 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:6" ht="18.75" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:6" ht="18.75" customHeight="1">
       <c r="A132" s="7"/>
       <c r="B132" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:6" ht="18.75" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -1752,7 +1739,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:6" ht="18.75" customHeight="1">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -1760,7 +1747,7 @@
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:6" ht="18.75" customHeight="1">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -1768,7 +1755,7 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:6" ht="18.75" customHeight="1">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -1776,7 +1763,7 @@
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:6" ht="18.75" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -1784,7 +1771,7 @@
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:6" ht="18.75" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -1792,7 +1779,7 @@
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:6" ht="18.75" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -1800,7 +1787,7 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:6" ht="18.75" customHeight="1">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -1808,7 +1795,7 @@
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:6" ht="18.75" customHeight="1">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -1816,7 +1803,7 @@
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:6" ht="18.75" customHeight="1">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -1824,7 +1811,7 @@
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:6" ht="18.75" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -1832,7 +1819,7 @@
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:6" ht="18.75" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -1840,7 +1827,7 @@
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:6" ht="18.75" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -1848,7 +1835,7 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:6" ht="18.75" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -1856,7 +1843,7 @@
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:6" ht="18.75" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -1864,7 +1851,7 @@
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:6" ht="18.75" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -1872,7 +1859,7 @@
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:6" ht="18.75" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -1880,7 +1867,7 @@
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:6" ht="18.75" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -1888,7 +1875,7 @@
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:6" ht="18.75" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -1896,7 +1883,7 @@
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:6" ht="18.75" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -1904,7 +1891,7 @@
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:6" ht="18.75" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -1912,7 +1899,7 @@
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:6" ht="18.75" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -1920,7 +1907,7 @@
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:6" ht="18.75" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -1928,7 +1915,7 @@
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:6" ht="18.75" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -1936,7 +1923,7 @@
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:6" ht="18.75" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -1944,7 +1931,7 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:6" ht="18.75" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -1952,7 +1939,7 @@
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:6" ht="18.75" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -1960,10 +1947,10 @@
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:6" ht="18.75" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -1982,174 +1969,183 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="38.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="6">
         <v>37000205</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="16">
+        <v>26</v>
+      </c>
+      <c r="D3" s="16" t="e">
         <f>VLOOKUP(A3,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" s="6">
         <v>37000217</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="16">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16" t="e">
         <f>VLOOKUP(A4,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="6">
         <v>35003505</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="16">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16" t="e">
         <f>VLOOKUP(A5,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
       <c r="A6" s="6">
         <v>37000212</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16">
+        <v>26</v>
+      </c>
+      <c r="D6" s="16" t="e">
         <f>VLOOKUP(A6,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
       <c r="A8" s="6">
         <v>37000127</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="16">
-        <f>VLOOKUP(A8,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="e">
+        <f t="shared" ref="D8:D13" si="0">VLOOKUP(A8,F:F,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
       <c r="A9" s="6">
         <v>35003162</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="16">
-        <f>VLOOKUP(A9,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+      <c r="D9" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
       <c r="A10" s="6">
         <v>37000203</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="16">
-        <f>VLOOKUP(A10,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
       <c r="A11" s="6">
         <v>35002437</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="16">
-        <f>VLOOKUP(A11,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1">
       <c r="A12" s="6">
         <v>31000053</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="16">
-        <f>VLOOKUP(A12,F:F,1,0)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1">
       <c r="A13" s="6">
         <v>35003330</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="16">
-        <f>VLOOKUP(A13,F:F,1,0)</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2164,24 +2160,25 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="12" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,290 +2203,268 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="8">
         <v>37000217</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="10">
         <v>40720002</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6">
-        <v>13250055</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I2" s="6"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1">
       <c r="A3" s="8">
         <v>37000205</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="10">
         <v>40720002</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6">
-        <v>13250055</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1">
       <c r="A4" s="8">
         <v>37000212</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="10">
         <v>40720002</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1">
       <c r="A5" s="8">
         <v>35003505</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="10">
         <v>40720002</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1">
       <c r="A6" s="11">
         <v>35003330</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10">
         <v>40720002</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6">
-        <v>13250090</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1">
       <c r="A7" s="11">
         <v>37000127</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="10">
         <v>40720002</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6">
-        <v>13250090</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1">
       <c r="A8" s="11">
         <v>35002591</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="10">
         <v>40720002</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="6">
-        <v>13250090</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:11" ht="19.5" customHeight="1">
       <c r="A9" s="11">
         <v>35003162</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="10">
         <v>40720002</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6">
-        <v>13250090</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1">
       <c r="A10" s="11">
         <v>37000203</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="10">
         <v>40720002</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="6">
-        <v>13250090</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
